--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll4-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll4-Notch4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H2">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I2">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J2">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N2">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O2">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P2">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q2">
-        <v>2382.449085290462</v>
+        <v>2065.600082256834</v>
       </c>
       <c r="R2">
-        <v>21442.04176761416</v>
+        <v>18590.40074031151</v>
       </c>
       <c r="S2">
-        <v>0.8854944400552224</v>
+        <v>0.9003849012637141</v>
       </c>
       <c r="T2">
-        <v>0.8854944400552223</v>
+        <v>0.9003849012637142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H3">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I3">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J3">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O3">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P3">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q3">
-        <v>143.3181367095611</v>
+        <v>122.7310274866706</v>
       </c>
       <c r="R3">
-        <v>1289.86323038605</v>
+        <v>1104.579247380035</v>
       </c>
       <c r="S3">
-        <v>0.05326762867627804</v>
+        <v>0.05349785034131305</v>
       </c>
       <c r="T3">
-        <v>0.05326762867627804</v>
+        <v>0.05349785034131306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H4">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I4">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J4">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N4">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O4">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P4">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q4">
-        <v>36.84122259738222</v>
+        <v>37.63329623845167</v>
       </c>
       <c r="R4">
-        <v>331.57100337644</v>
+        <v>338.6996661460651</v>
       </c>
       <c r="S4">
-        <v>0.0136929254758204</v>
+        <v>0.01640416845881654</v>
       </c>
       <c r="T4">
-        <v>0.0136929254758204</v>
+        <v>0.01640416845881654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H5">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I5">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J5">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N5">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O5">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P5">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q5">
-        <v>93.21775129234778</v>
+        <v>29.325626663284</v>
       </c>
       <c r="R5">
-        <v>838.95976163113</v>
+        <v>263.930639969556</v>
       </c>
       <c r="S5">
-        <v>0.03464661679171244</v>
+        <v>0.01278289621235328</v>
       </c>
       <c r="T5">
-        <v>0.03464661679171244</v>
+        <v>0.01278289621235328</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I6">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J6">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N6">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O6">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P6">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q6">
-        <v>14.14177335381066</v>
+        <v>14.31770037696833</v>
       </c>
       <c r="R6">
-        <v>127.275960184296</v>
+        <v>128.859303392715</v>
       </c>
       <c r="S6">
-        <v>0.005256129818108466</v>
+        <v>0.006241015069168248</v>
       </c>
       <c r="T6">
-        <v>0.005256129818108466</v>
+        <v>0.006241015069168249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I7">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J7">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O7">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P7">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q7">
         <v>0.8507097252783333</v>
@@ -883,10 +883,10 @@
         <v>7.656387527505</v>
       </c>
       <c r="S7">
-        <v>0.0003161867074036671</v>
+        <v>0.0003708201788808673</v>
       </c>
       <c r="T7">
-        <v>0.0003161867074036671</v>
+        <v>0.0003708201788808674</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I8">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J8">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N8">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O8">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P8">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q8">
-        <v>0.2186826250626666</v>
+        <v>0.260855072755</v>
       </c>
       <c r="R8">
-        <v>1.968143625564</v>
+        <v>2.347695654795</v>
       </c>
       <c r="S8">
-        <v>8.127865137821561E-05</v>
+        <v>0.0001137054413117738</v>
       </c>
       <c r="T8">
-        <v>8.12786513782156E-05</v>
+        <v>0.0001137054413117738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I9">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J9">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N9">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O9">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P9">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q9">
-        <v>0.5533231830503333</v>
+        <v>0.203270487612</v>
       </c>
       <c r="R9">
-        <v>4.979908647453</v>
+        <v>1.829434388508</v>
       </c>
       <c r="S9">
-        <v>0.0002056558543768388</v>
+        <v>8.860460429416314E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002056558543768388</v>
+        <v>8.860460429416315E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H10">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I10">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J10">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N10">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O10">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P10">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q10">
-        <v>14.13102607709956</v>
+        <v>17.18569232572111</v>
       </c>
       <c r="R10">
-        <v>127.179234693896</v>
+        <v>154.67123093149</v>
       </c>
       <c r="S10">
-        <v>0.005252135334519213</v>
+        <v>0.007491158632670401</v>
       </c>
       <c r="T10">
-        <v>0.005252135334519212</v>
+        <v>0.007491158632670401</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H11">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I11">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J11">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O11">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P11">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q11">
-        <v>0.8500632142227779</v>
+        <v>1.021116185714444</v>
       </c>
       <c r="R11">
-        <v>7.650568928005</v>
+        <v>9.190045671429999</v>
       </c>
       <c r="S11">
-        <v>0.0003159464160376676</v>
+        <v>0.0004450995156084447</v>
       </c>
       <c r="T11">
-        <v>0.0003159464160376676</v>
+        <v>0.0004450995156084447</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H12">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I12">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J12">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N12">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O12">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P12">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q12">
-        <v>0.2185164335515556</v>
+        <v>0.3131071962633334</v>
       </c>
       <c r="R12">
-        <v>1.966647901964</v>
+        <v>2.817964766370001</v>
       </c>
       <c r="S12">
-        <v>8.121688231041816E-05</v>
+        <v>0.0001364818845691092</v>
       </c>
       <c r="T12">
-        <v>8.121688231041816E-05</v>
+        <v>0.0001364818845691092</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H13">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I13">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J13">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N13">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O13">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P13">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q13">
-        <v>0.5529026758614445</v>
+        <v>0.243987789032</v>
       </c>
       <c r="R13">
-        <v>4.976124082753</v>
+        <v>2.195890101288</v>
       </c>
       <c r="S13">
-        <v>0.0002054995627775499</v>
+        <v>0.0001063530754206342</v>
       </c>
       <c r="T13">
-        <v>0.0002054995627775499</v>
+        <v>0.0001063530754206342</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H14">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I14">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J14">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N14">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O14">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P14">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q14">
-        <v>2.858499246611555</v>
+        <v>4.069857857457778</v>
       </c>
       <c r="R14">
-        <v>25.726493219504</v>
+        <v>36.62872071712</v>
       </c>
       <c r="S14">
-        <v>0.001062429919449036</v>
+        <v>0.001774030993037519</v>
       </c>
       <c r="T14">
-        <v>0.001062429919449035</v>
+        <v>0.001774030993037519</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H15">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I15">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J15">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O15">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P15">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q15">
-        <v>0.1719553162077778</v>
+        <v>0.2418173008711111</v>
       </c>
       <c r="R15">
-        <v>1.54759784587</v>
+        <v>2.17635570784</v>
       </c>
       <c r="S15">
-        <v>6.391132443502399E-05</v>
+        <v>0.0001054069703225453</v>
       </c>
       <c r="T15">
-        <v>6.391132443502398E-05</v>
+        <v>0.0001054069703225453</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H16">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I16">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J16">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N16">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O16">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P16">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q16">
-        <v>0.04420266845955555</v>
+        <v>0.07414899317333334</v>
       </c>
       <c r="R16">
-        <v>0.3978240161359999</v>
+        <v>0.6673409385600001</v>
       </c>
       <c r="S16">
-        <v>1.642898368666241E-05</v>
+        <v>3.232118088620136E-05</v>
       </c>
       <c r="T16">
-        <v>1.642898368666241E-05</v>
+        <v>3.232118088620136E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H17">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I17">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J17">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N17">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O17">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P17">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q17">
-        <v>0.1118440992024444</v>
+        <v>0.057780367616</v>
       </c>
       <c r="R17">
-        <v>1.006596892822</v>
+        <v>0.520023308544</v>
       </c>
       <c r="S17">
-        <v>4.156954648400172E-05</v>
+        <v>2.518617763321941E-05</v>
       </c>
       <c r="T17">
-        <v>4.156954648400172E-05</v>
+        <v>2.518617763321942E-05</v>
       </c>
     </row>
   </sheetData>
